--- a/Ejercicio 5/Resultados.xlsx
+++ b/Ejercicio 5/Resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\Practica2TSI\Ejercicio 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fl156\Desktop\Practica2TSI\Ejercicio 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ECAB768-D432-4407-B322-6302A7A28457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71012E9-8907-4A4B-AE3C-14F1969A2064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1830" windowWidth="19440" windowHeight="15000" xr2:uid="{FC821E5B-8269-46FB-81A1-C1F8946A4892}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC821E5B-8269-46FB-81A1-C1F8946A4892}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Tamaño</t>
   </si>
   <si>
-    <t>Nº de colores mínimo</t>
-  </si>
-  <si>
-    <t>Runtime (s)</t>
-  </si>
-  <si>
     <t>N=4, M=6</t>
   </si>
   <si>
@@ -78,6 +72,15 @@
   </si>
   <si>
     <t>Runtime 0</t>
+  </si>
+  <si>
+    <t>Mínimo runtime (s)</t>
+  </si>
+  <si>
+    <t>Nº de colores mínimo medio</t>
+  </si>
+  <si>
+    <t>Runtime medio(s)</t>
   </si>
 </sst>
 </file>
@@ -430,154 +433,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885A6EFA-37ED-4A3C-A52E-641124ABA322}">
-  <dimension ref="B2:L8"/>
+  <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B2" sqref="B2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <f>AVERAGE(F3:H3)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="D3">
-        <f>AVERAGE(J3:L3)</f>
         <v>0.27933333333333338</v>
       </c>
-      <c r="F3">
-        <v>3</v>
+      <c r="E3">
+        <v>0.27700000000000002</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.27700000000000002</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.27800000000000002</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C8" si="0">AVERAGE(F4:H4)</f>
         <v>4.666666666666667</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D8" si="1">AVERAGE(J4:L4)</f>
         <v>0.29299999999999998</v>
       </c>
-      <c r="F4">
-        <v>5</v>
+      <c r="E4">
+        <v>0.29199999999999998</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.29299999999999998</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
         <v>6.333333333333333</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
         <v>0.33066666666666666</v>
       </c>
-      <c r="F5">
-        <v>6</v>
+      <c r="E5">
+        <v>0.32700000000000001</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
         <v>7</v>
-      </c>
-      <c r="J5">
-        <v>0.32700000000000001</v>
       </c>
       <c r="K5">
         <v>0.32700000000000001</v>
       </c>
       <c r="L5">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="M5">
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
         <v>0.68566666666666665</v>
       </c>
-      <c r="F6">
-        <v>8</v>
+      <c r="E6">
+        <v>0.56899999999999995</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -585,57 +594,61 @@
       <c r="H6">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="K6">
         <v>0.66400000000000003</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.56899999999999995</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
         <v>20.491333333333333</v>
       </c>
-      <c r="F7">
+      <c r="E7">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>54.524999999999999</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.86699999999999999</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6.0819999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C8" si="0">AVERAGE(F8:H8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D8" si="1">AVERAGE(J8:L8)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
